--- a/assets/spreadsheets/keep-thrifty-retirement-freedom.xlsx
+++ b/assets/spreadsheets/keep-thrifty-retirement-freedom.xlsx
@@ -15619,7 +15619,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="14">
-        <f ca="1">IF(F14&lt;&gt;"Already There!", IFERROR(VLOOKUP(F14, B18:E1218, 4), "Contribute more!"), "Congrats :)")</f>
+        <f ca="1">IF(F14&lt;&gt;"Already There!", IFERROR(VLOOKUP(F14, B18:E1218, 4), "Contribute more!"), D6)</f>
         <v>223007.69974802784</v>
       </c>
       <c r="G15" s="1"/>
